--- a/YahooMovie.xlsx
+++ b/YahooMovie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>Chinese Title</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Expection</t>
+  </si>
+  <si>
+    <t>Len Comment</t>
   </si>
   <si>
     <t>Satisfaction</t>
@@ -587,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,404 +615,467 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2">
+        <v>-0.225</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>435</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3">
+        <v>-0.03218390804597701</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4">
+        <v>-1.537037037037037</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>275</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <v>0.4727272727272727</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6">
+        <v>-3.196428571428572</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>162</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>1.018518518518519</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8">
+        <v>-0.5473684210526316</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>152</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <v>0.506578947368421</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>243</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11">
+        <v>0.2304526748971193</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12">
+        <v>-3.444444444444445</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13">
+        <v>2.5</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14">
+        <v>-2.142857142857143</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15">
+        <v>0.95</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <v>-0.05882352941176471</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18">
+        <v>-5</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19">
+        <v>-6.666666666666667</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20">
+        <v>-4.5</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="E2">
-        <v>-0.225</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3">
-        <v>-0.06697459584295612</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4">
-        <v>-1.537037037037037</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="D21">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6">
-        <v>-3.196428571428572</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7">
-        <v>1.018518518518519</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8">
-        <v>-0.5638297872340425</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10">
-        <v>0.506578947368421</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11">
-        <v>0.2304526748971193</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12">
-        <v>-3.444444444444445</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13">
-        <v>2.5</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14">
-        <v>-2.142857142857143</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15">
-        <v>0.95</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E21" t="s">
         <v>69</v>
       </c>
-      <c r="E16">
-        <v>-0.05882352941176471</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18">
-        <v>-5</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20">
-        <v>-4.5</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21">
+      <c r="F21">
         <v>2.8</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1</v>
       </c>
     </row>
